--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPGLAccountClassProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPGLAccountClassProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C0402B-B3B0-4850-8675-BEC1FA271B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8161E377-DC75-4B67-A4D0-A5CA901AC2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E48E3DD6-0E9A-4FCA-89BE-6D5DDCF154A0}"/>
+    <workbookView xWindow="10" yWindow="380" windowWidth="19190" windowHeight="10190" xr2:uid="{E48E3DD6-0E9A-4FCA-89BE-6D5DDCF154A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -142,13 +142,13 @@
     <t>GlAccountCat</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01 - TEST 1 </t>
-  </si>
-  <si>
     <t>getData=GlAccountSource</t>
   </si>
   <si>
     <t>GlAccountSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03 - OTHER ASSETS </t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -754,7 +754,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -809,7 +809,7 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6"/>
     </row>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPGLAccountClassProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPGLAccountClassProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8161E377-DC75-4B67-A4D0-A5CA901AC2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0CF6D1-DD42-45C1-82F6-2E8FE3731BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="380" windowWidth="19190" windowHeight="10190" xr2:uid="{E48E3DD6-0E9A-4FCA-89BE-6D5DDCF154A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E48E3DD6-0E9A-4FCA-89BE-6D5DDCF154A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -130,12 +130,6 @@
     <t>txt_gaapGLAccountClass_gacp</t>
   </si>
   <si>
-    <t>selectByVisibleTextInput</t>
-  </si>
-  <si>
-    <t>dropdown_glAccountCategory_gacp</t>
-  </si>
-  <si>
     <t>getData=GlAccountCat</t>
   </si>
   <si>
@@ -148,7 +142,13 @@
     <t>GlAccountSource</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03 - OTHER ASSETS </t>
+    <t xml:space="preserve"> 01 - GAAP GL ONE </t>
+  </si>
+  <si>
+    <t>selectByVisibleText</t>
+  </si>
+  <si>
+    <t>link_nacuboGLAccountClassProfile_wait</t>
   </si>
 </sst>
 </file>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67FE2C5-0520-49C6-94B1-F01BCA1A7D63}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -702,13 +702,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -754,7 +754,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -785,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
@@ -809,7 +809,7 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="6"/>
     </row>
